--- a/Timesheets.xlsx
+++ b/Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipulpoudel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8181A7C-DA2F-F14D-832E-E9B707FCA88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C975F81-A2DC-4524-B05F-5543E67A12C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>Task No.</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>via Google - YouTube v3 API</t>
+  </si>
+  <si>
+    <t>BRAND NEW WOWAOWOOWAOAO</t>
+  </si>
+  <si>
+    <t>pelae</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>ples</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -579,22 +594,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.1640625" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,7 +649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -651,7 +666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -671,7 +686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -691,7 +706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -711,7 +726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -728,7 +743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -748,7 +763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -768,7 +783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -788,7 +803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -805,7 +820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -825,7 +840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -845,7 +860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -862,7 +877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -879,7 +894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -896,7 +911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -913,7 +928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -930,7 +945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -947,7 +962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -964,7 +979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -981,7 +996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -998,7 +1013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1015,7 +1030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1049,7 +1064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1066,7 +1081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1134,7 +1149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1149,6 +1164,26 @@
       </c>
       <c r="E31" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheets.xlsx
+++ b/Timesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C975F81-A2DC-4524-B05F-5543E67A12C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4184679A-068D-49BB-AB93-90D7B68106EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
